--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1462345.219306601</v>
+        <v>-1463085.682127323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.44866698120353</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642678</v>
+        <v>59.42064602642674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874612</v>
+        <v>65.87283976874609</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247068</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>163.8936775045948</v>
       </c>
       <c r="W11" t="n">
         <v>217.5243676847004</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715469</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560309</v>
       </c>
       <c r="D12" t="n">
-        <v>51.52204570810059</v>
+        <v>15.72846453192611</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268833</v>
+        <v>25.9284794226883</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067126</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622706</v>
+        <v>141.0706268020133</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027159</v>
+        <v>67.36632966027156</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475014</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>74.05638417076483</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459174</v>
+        <v>73.96609474459171</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922465</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591519</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549971</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385653</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021863</v>
+        <v>13.7044469902186</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028126</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304852</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892992</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437361</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529489</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494631</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200256</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632451</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.87883496051994</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>19.49553759186382</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560312</v>
+        <v>40.99189795560306</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192614</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268833</v>
+        <v>25.92847942268827</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.3526113606712</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115071</v>
+        <v>5.358526637115014</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
         <v>80.15602968011626</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.79358117617461</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622706</v>
+        <v>34.98135294622701</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027159</v>
+        <v>67.36632966027153</v>
       </c>
       <c r="U15" t="n">
         <v>225.9237248774628</v>
@@ -1746,13 +1746,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076486</v>
+        <v>180.1456580265515</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892989</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437358</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448898</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770418</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149214</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401689</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W17" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X17" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="18">
@@ -1923,22 +1923,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>3.644927693491425</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>10.98451958552388</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>12.66691378543852</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662025</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V19" t="n">
-        <v>195.1910385061426</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047299</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945659</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149215</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W20" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>97.43435944802135</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>99.77534540662637</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.74903581678985</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662028</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771002</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W22" t="n">
-        <v>229.5763935189056</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149216</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W23" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X23" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>71.37721974830177</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>52.14811338811684</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.31549393480162</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662028</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771002</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W25" t="n">
-        <v>229.5763935189056</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673131</v>
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>79.03062158184412</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.67629070543703</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>16.65389370048767</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0829306929842</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2792,10 +2792,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D29" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E29" t="n">
         <v>231.8863097938098</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068739</v>
+        <v>41.09318678068742</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300676</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,7 +2855,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y29" t="n">
         <v>236.1938783776016</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141536</v>
       </c>
       <c r="C30" t="n">
-        <v>73.94639696422506</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>7.601020176948936</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2889,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>140.4228772669979</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901081</v>
       </c>
       <c r="V30" t="n">
-        <v>82.75652687097326</v>
+        <v>82.75652687097329</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.7289249250255</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D32" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E32" t="n">
         <v>231.8863097938098</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068739</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,7 +3092,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y32" t="n">
         <v>236.1938783776016</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.48912337141533</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>134.7761008792457</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.5113268420278685</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048767</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>82.75652687097326</v>
+        <v>82.75652687097329</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>55.72892492502547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.79712696322987</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.004320578926697</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.92618868848362</v>
+        <v>229.3601513350527</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
@@ -3636,19 +3636,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>181.3620708888991</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480168</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>110.8815244684446</v>
       </c>
     </row>
     <row r="40">
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X40" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482977</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558247</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265055001</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570789</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265286</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221228</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.534150832569139e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242682</v>
+        <v>30.40550832242728</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549516</v>
+        <v>106.852243354952</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022301</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632862</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408707</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3834,10 +3834,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.76847421891232</v>
       </c>
       <c r="S42" t="n">
-        <v>19.78434044710013</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
@@ -3879,10 +3879,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>30.79496804573628</v>
+        <v>30.79496804573674</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.1006484492968</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352476079</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755539</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864513</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140813</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273854285</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482977</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558247</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265055001</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570789</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265286</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221228</v>
       </c>
       <c r="H44" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242727</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549516</v>
+        <v>106.852243354952</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022301</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632862</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408707</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.2531854799328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>35.0016597849785</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>5.023709762279915</v>
       </c>
       <c r="V45" t="n">
-        <v>11.90057203424195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352476079</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755539</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864513</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140813</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273854285</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492991</v>
+        <v>120.1006484492968</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>907.0787332149115</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="C11" t="n">
-        <v>907.0787332149115</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="D11" t="n">
-        <v>907.0787332149115</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="E11" t="n">
-        <v>654.3375523668819</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="F11" t="n">
-        <v>376.3987193274892</v>
+        <v>581.0663979851755</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608226</v>
+        <v>295.1224403037684</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608226</v>
+        <v>90.45476164608225</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020954</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
         <v>485.3806706550282</v>
@@ -5069,22 +5069,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1334.360240389989</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="V11" t="n">
-        <v>1136.344424796633</v>
+        <v>1078.726814544468</v>
       </c>
       <c r="W11" t="n">
-        <v>916.6228412767332</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="X11" t="n">
-        <v>916.6228412767332</v>
+        <v>859.0052310245684</v>
       </c>
       <c r="Y11" t="n">
-        <v>916.6228412767332</v>
+        <v>859.0052310245684</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.0326877100147</v>
+        <v>590.6284307249189</v>
       </c>
       <c r="C12" t="n">
-        <v>341.5796584288877</v>
+        <v>549.2224731940066</v>
       </c>
       <c r="D12" t="n">
-        <v>289.5371880166649</v>
+        <v>533.3351352829701</v>
       </c>
       <c r="E12" t="n">
-        <v>263.3468047614241</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F12" t="n">
-        <v>249.8593185385238</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H12" t="n">
         <v>111.399593619506</v>
@@ -5121,49 +5121,49 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>223.0613211674321</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867616</v>
+        <v>119.7913802412348</v>
       </c>
       <c r="M12" t="n">
-        <v>599.7226253614406</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N12" t="n">
-        <v>976.3422254013738</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O12" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751015</v>
+        <v>1294.86225326549</v>
       </c>
       <c r="T12" t="n">
-        <v>1418.313856114377</v>
+        <v>1226.815455628852</v>
       </c>
       <c r="U12" t="n">
-        <v>1190.10807340987</v>
+        <v>1131.656744674559</v>
       </c>
       <c r="V12" t="n">
-        <v>1088.003036928342</v>
+        <v>1029.551708193031</v>
       </c>
       <c r="W12" t="n">
-        <v>966.8127519503547</v>
+        <v>775.3143514648292</v>
       </c>
       <c r="X12" t="n">
-        <v>758.9612517448219</v>
+        <v>700.5099230095112</v>
       </c>
       <c r="Y12" t="n">
-        <v>684.2480247300828</v>
+        <v>625.7966959947721</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858024</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081103</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459894</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138111</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661155</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946783</v>
+        <v>76.37056042946777</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184303</v>
+        <v>47.572540971843</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220477</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383615</v>
+        <v>409.2216288383617</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835531</v>
+        <v>613.7275326835532</v>
       </c>
       <c r="N13" t="n">
-        <v>821.9059667580935</v>
+        <v>821.9059667580937</v>
       </c>
       <c r="O13" t="n">
-        <v>993.2198425848499</v>
+        <v>1008.130600786446</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1032.37802040831</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856984</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877729</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493632</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936911</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069452</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591427</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>581.0663979851759</v>
+        <v>614.0091600087378</v>
       </c>
       <c r="C14" t="n">
-        <v>581.0663979851759</v>
+        <v>594.316697794734</v>
       </c>
       <c r="D14" t="n">
-        <v>581.0663979851759</v>
+        <v>594.316697794734</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851759</v>
+        <v>594.316697794734</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851759</v>
+        <v>316.3778647553411</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037687</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608226</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
@@ -5303,25 +5303,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1521.695353696699</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1431.611097047739</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1310.814205729661</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V14" t="n">
-        <v>1112.798390136305</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="W14" t="n">
-        <v>1112.798390136305</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="X14" t="n">
-        <v>872.3797036254399</v>
+        <v>1124.654188548242</v>
       </c>
       <c r="Y14" t="n">
-        <v>615.2874433998429</v>
+        <v>867.5619283226448</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>346.8304834586136</v>
+        <v>324.534287224489</v>
       </c>
       <c r="C15" t="n">
-        <v>305.4245259277014</v>
+        <v>283.1283296935769</v>
       </c>
       <c r="D15" t="n">
-        <v>289.5371880166649</v>
+        <v>267.2409917825404</v>
       </c>
       <c r="E15" t="n">
-        <v>263.3468047614241</v>
+        <v>241.0506085272997</v>
       </c>
       <c r="F15" t="n">
-        <v>116.8122467883091</v>
+        <v>227.5631223043995</v>
       </c>
       <c r="G15" t="n">
-        <v>111.399593619506</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H15" t="n">
         <v>111.399593619506</v>
@@ -5358,7 +5358,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K15" t="n">
-        <v>119.7913802412348</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L15" t="n">
         <v>119.7913802412348</v>
@@ -5379,28 +5379,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1485.540221195513</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1450.205521249829</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1382.158723613191</v>
+        <v>1333.976338311464</v>
       </c>
       <c r="U15" t="n">
-        <v>1153.952940908683</v>
+        <v>1105.770555606956</v>
       </c>
       <c r="V15" t="n">
-        <v>918.8008326769404</v>
+        <v>870.6184473752137</v>
       </c>
       <c r="W15" t="n">
-        <v>797.6105476989536</v>
+        <v>616.3810906470121</v>
       </c>
       <c r="X15" t="n">
-        <v>722.8061192436355</v>
+        <v>434.4157795090813</v>
       </c>
       <c r="Y15" t="n">
-        <v>515.0458204786817</v>
+        <v>359.7025524943422</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.9277216112794</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C16" t="n">
-        <v>599.0386104335872</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D16" t="n">
-        <v>581.9690427714663</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E16" t="n">
-        <v>567.1030209392879</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F16" t="n">
-        <v>553.2601451915924</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G16" t="n">
-        <v>516.8466405549447</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H16" t="n">
-        <v>488.0486210973199</v>
+        <v>47.57254097184297</v>
       </c>
       <c r="I16" t="n">
-        <v>470.9099871994109</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>524.6328703276816</v>
+        <v>84.15679020220483</v>
       </c>
       <c r="K16" t="n">
-        <v>658.8660131956103</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
-        <v>719.298273941453</v>
+        <v>394.3108706367644</v>
       </c>
       <c r="M16" t="n">
-        <v>908.8934195850485</v>
+        <v>598.816774481956</v>
       </c>
       <c r="N16" t="n">
-        <v>1117.071853659589</v>
+        <v>676.595773534111</v>
       </c>
       <c r="O16" t="n">
-        <v>1303.296487687941</v>
+        <v>862.8204075624634</v>
       </c>
       <c r="P16" t="n">
-        <v>1457.943342332191</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q16" t="n">
-        <v>1521.695353696699</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.877596742787</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S16" t="n">
-        <v>1396.606174111176</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T16" t="n">
-        <v>1300.37628781325</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U16" t="n">
-        <v>1144.22461597484</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V16" t="n">
-        <v>1022.587199519168</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W16" t="n">
-        <v>866.2171012324222</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X16" t="n">
-        <v>771.2746220846196</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y16" t="n">
-        <v>683.5291146913044</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230551</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693744</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5534,16 +5534,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>293.8009373962166</v>
+        <v>670.6888333236948</v>
       </c>
       <c r="C18" t="n">
-        <v>293.8009373962166</v>
+        <v>496.2358040425678</v>
       </c>
       <c r="D18" t="n">
-        <v>144.8665277349653</v>
+        <v>347.3013943813165</v>
       </c>
       <c r="E18" t="n">
-        <v>141.1847825900245</v>
+        <v>188.063939375861</v>
       </c>
       <c r="F18" t="n">
-        <v>141.1847825900245</v>
+        <v>41.529381402746</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H18" t="n">
         <v>30.43390707393399</v>
@@ -5592,52 +5592,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>168.8296018649922</v>
       </c>
       <c r="L18" t="n">
-        <v>198.6970944041448</v>
+        <v>456.4846184843218</v>
       </c>
       <c r="M18" t="n">
-        <v>496.410980281168</v>
+        <v>833.104218524255</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211011</v>
+        <v>1209.723818564188</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453613</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T18" t="n">
-        <v>1152.219712613948</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U18" t="n">
-        <v>924.0139299094402</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="V18" t="n">
-        <v>924.0139299094402</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="W18" t="n">
-        <v>669.7765731812385</v>
+        <v>1254.51596931425</v>
       </c>
       <c r="X18" t="n">
-        <v>669.7765731812385</v>
+        <v>1046.664469108717</v>
       </c>
       <c r="Y18" t="n">
-        <v>462.0162744162846</v>
+        <v>838.9041703437629</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393399</v>
+        <v>199.8944834607965</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393399</v>
+        <v>199.8944834607965</v>
       </c>
       <c r="G19" t="n">
         <v>30.43390707393399</v>
@@ -5674,7 +5674,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531978</v>
@@ -5704,19 +5704,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V19" t="n">
-        <v>80.07381526633095</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="X19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230543</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693736</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243297</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020939</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550282</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241021</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>464.3625996273182</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="C21" t="n">
-        <v>464.3625996273182</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="D21" t="n">
-        <v>315.4281899660669</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="E21" t="n">
-        <v>315.4281899660669</v>
+        <v>275.3870099440403</v>
       </c>
       <c r="F21" t="n">
-        <v>168.8936319929519</v>
+        <v>128.8524519709253</v>
       </c>
       <c r="G21" t="n">
         <v>30.43390707393399</v>
@@ -5832,16 +5832,16 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674321</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867616</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M21" t="n">
-        <v>808.3825154136794</v>
+        <v>719.0727504964839</v>
       </c>
       <c r="N21" t="n">
-        <v>1185.002115453613</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O21" t="n">
         <v>1185.002115453613</v>
@@ -5853,28 +5853,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893786</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T21" t="n">
-        <v>1236.263966506933</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U21" t="n">
-        <v>1008.058183802425</v>
+        <v>924.0139299094402</v>
       </c>
       <c r="V21" t="n">
-        <v>772.9060755706826</v>
+        <v>688.8618216776974</v>
       </c>
       <c r="W21" t="n">
-        <v>672.1228983922721</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="X21" t="n">
-        <v>672.1228983922721</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="Y21" t="n">
-        <v>464.3625996273182</v>
+        <v>434.6244649494958</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="I22" t="n">
         <v>30.43390707393399</v>
@@ -5935,25 +5935,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681117</v>
+        <v>294.5882290198391</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681117</v>
+        <v>294.5882290198391</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240508</v>
+        <v>245.1667472757782</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627276</v>
+        <v>230.2595209144549</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>180.6196127220578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810896</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230546</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693743</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243304</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372721</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393453</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
         <v>30.43390707393399</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>649.1186742526494</v>
+        <v>923.4081228225066</v>
       </c>
       <c r="C24" t="n">
-        <v>474.6656449715224</v>
+        <v>748.9550935413796</v>
       </c>
       <c r="D24" t="n">
-        <v>474.6656449715224</v>
+        <v>600.0206838801283</v>
       </c>
       <c r="E24" t="n">
-        <v>315.4281899660669</v>
+        <v>440.7832288746728</v>
       </c>
       <c r="F24" t="n">
-        <v>168.8936319929519</v>
+        <v>294.2486709015578</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393399</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I24" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K24" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3521110234743</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M24" t="n">
-        <v>599.7226253614406</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N24" t="n">
-        <v>976.3422254013738</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533885</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="P24" t="n">
         <v>1521.695353696699</v>
@@ -6093,25 +6093,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S24" t="n">
-        <v>1353.313582000801</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T24" t="n">
-        <v>1152.219712613948</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U24" t="n">
-        <v>924.0139299094402</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V24" t="n">
-        <v>871.3390679012414</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="W24" t="n">
-        <v>856.8789730176034</v>
+        <v>1507.235258813061</v>
       </c>
       <c r="X24" t="n">
-        <v>856.8789730176034</v>
+        <v>1299.383758607529</v>
       </c>
       <c r="Y24" t="n">
-        <v>649.1186742526494</v>
+        <v>1091.623459842575</v>
       </c>
     </row>
     <row r="25">
@@ -6178,16 +6178,16 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627276</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="Y25" t="n">
         <v>30.43390707393399</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D26" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601859</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H26" t="n">
         <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
@@ -6245,28 +6245,28 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>580.7331337873081</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C27" t="n">
-        <v>406.2801045061811</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D27" t="n">
-        <v>406.2801045061811</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E27" t="n">
-        <v>247.0426495007256</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="F27" t="n">
-        <v>247.0426495007256</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
         <v>79.69031420235046</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1948.511844831224</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1931.689729982246</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1730.595860595394</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1653.949734737807</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V27" t="n">
-        <v>1418.797626506064</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W27" t="n">
-        <v>1164.560269777863</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X27" t="n">
-        <v>956.7087695723301</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y27" t="n">
-        <v>748.9484708073762</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.31218528794294</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93565920695725</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93565920695725</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695725</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G28" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.6726970090045</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="J28" t="n">
         <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>145.0927688852447</v>
+        <v>280.917092311768</v>
       </c>
       <c r="L28" t="n">
-        <v>205.5250296310873</v>
+        <v>489.8929727332781</v>
       </c>
       <c r="M28" t="n">
-        <v>428.1751181295609</v>
+        <v>563.9994415560842</v>
       </c>
       <c r="N28" t="n">
-        <v>505.9541171817158</v>
+        <v>641.7784406082392</v>
       </c>
       <c r="O28" t="n">
-        <v>561.7793161876826</v>
+        <v>697.603639614206</v>
       </c>
       <c r="P28" t="n">
-        <v>734.5703554852141</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.4665515030049</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1613796457985</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>728.4025421108939</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>650.6852409096748</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>513.0461541679715</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>409.9213228090058</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>272.0638096189664</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>195.6339155678703</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.4009932712614</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F29" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210061</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
@@ -6488,25 +6488,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>533.4423742727149</v>
+        <v>1014.661826340692</v>
       </c>
       <c r="C30" t="n">
-        <v>458.7490440058209</v>
+        <v>840.2087970595653</v>
       </c>
       <c r="D30" t="n">
-        <v>458.7490440058209</v>
+        <v>691.274387398314</v>
       </c>
       <c r="E30" t="n">
-        <v>451.0712458472866</v>
+        <v>532.0369323928586</v>
       </c>
       <c r="F30" t="n">
-        <v>304.5366878741715</v>
+        <v>385.5023744197435</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0769629551536</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I30" t="n">
         <v>55.32608743906317</v>
@@ -6567,25 +6567,25 @@
         <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1884.398970467653</v>
+        <v>1759.379795147946</v>
       </c>
       <c r="T30" t="n">
-        <v>1683.305101080801</v>
+        <v>1709.845582608014</v>
       </c>
       <c r="U30" t="n">
-        <v>1455.099318376293</v>
+        <v>1633.199456750428</v>
       </c>
       <c r="V30" t="n">
-        <v>1371.506866991471</v>
+        <v>1549.607005365606</v>
       </c>
       <c r="W30" t="n">
-        <v>1117.26951026327</v>
+        <v>1295.369648637405</v>
       </c>
       <c r="X30" t="n">
-        <v>909.4180100577369</v>
+        <v>1239.077805278793</v>
       </c>
       <c r="Y30" t="n">
-        <v>701.657711292783</v>
+        <v>1031.317506513839</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.3238872447417</v>
+        <v>92.73818863237909</v>
       </c>
       <c r="C31" t="n">
-        <v>73.94736116375601</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139327</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695727</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900451</v>
+        <v>56.67269700900448</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>128.5397647905572</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3734726361005</v>
+        <v>280.9170923117679</v>
       </c>
       <c r="L31" t="n">
-        <v>341.3493530576106</v>
+        <v>489.8929727332779</v>
       </c>
       <c r="M31" t="n">
-        <v>423.1868200863596</v>
+        <v>573.1447411496646</v>
       </c>
       <c r="N31" t="n">
-        <v>649.509438814182</v>
+        <v>650.9237402018196</v>
       </c>
       <c r="O31" t="n">
-        <v>705.3346378201488</v>
+        <v>706.7489392077864</v>
       </c>
       <c r="P31" t="n">
-        <v>729.5820574420128</v>
+        <v>730.9963588296504</v>
       </c>
       <c r="Q31" t="n">
-        <v>811.4782534598036</v>
+        <v>812.8925548474411</v>
       </c>
       <c r="R31" t="n">
-        <v>794.1730816025972</v>
+        <v>795.5873829902348</v>
       </c>
       <c r="S31" t="n">
-        <v>723.4142440676926</v>
+        <v>724.8285454553302</v>
       </c>
       <c r="T31" t="n">
-        <v>645.6969428664735</v>
+        <v>647.1112442541111</v>
       </c>
       <c r="U31" t="n">
-        <v>508.0578561247702</v>
+        <v>509.4721575124078</v>
       </c>
       <c r="V31" t="n">
-        <v>404.9330247658046</v>
+        <v>406.3473261534421</v>
       </c>
       <c r="W31" t="n">
-        <v>267.0755115757652</v>
+        <v>268.4898129634026</v>
       </c>
       <c r="X31" t="n">
-        <v>190.645617524669</v>
+        <v>192.0599189123065</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.4126952280602</v>
+        <v>122.8269966156976</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.847071002871</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601846</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754839</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.8343569145045</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
         <v>234.1884011210063</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471602</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
         <v>2233.040522606063</v>
@@ -6719,31 +6719,31 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367763</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8992057694708</v>
+        <v>685.0020311196361</v>
       </c>
       <c r="C33" t="n">
-        <v>746.4461764883438</v>
+        <v>510.5490018385091</v>
       </c>
       <c r="D33" t="n">
-        <v>610.308700852742</v>
+        <v>361.6145921772578</v>
       </c>
       <c r="E33" t="n">
-        <v>451.0712458472866</v>
+        <v>202.3771371718023</v>
       </c>
       <c r="F33" t="n">
-        <v>304.5366878741715</v>
+        <v>55.84257919868728</v>
       </c>
       <c r="G33" t="n">
-        <v>166.0769629551536</v>
+        <v>55.84257919868728</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.84257919868728</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235046</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T33" t="n">
-        <v>1767.642618883714</v>
+        <v>1834.864757927722</v>
       </c>
       <c r="U33" t="n">
-        <v>1539.436836179206</v>
+        <v>1606.658975223214</v>
       </c>
       <c r="V33" t="n">
-        <v>1455.844384794385</v>
+        <v>1523.066523838392</v>
       </c>
       <c r="W33" t="n">
-        <v>1201.607028066183</v>
+        <v>1268.829167110191</v>
       </c>
       <c r="X33" t="n">
-        <v>1145.315184707571</v>
+        <v>1060.977666904658</v>
       </c>
       <c r="Y33" t="n">
-        <v>937.5548859426176</v>
+        <v>853.2173681397041</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.3149707653445</v>
+        <v>100.8889674209086</v>
       </c>
       <c r="C34" t="n">
-        <v>79.93844468435881</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="D34" t="n">
-        <v>79.93844468435881</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>56.6726970090045</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>56.6726970090045</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
-        <v>79.44813070476943</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L34" t="n">
-        <v>288.4240111262795</v>
+        <v>119.592056030449</v>
       </c>
       <c r="M34" t="n">
-        <v>511.0740996247531</v>
+        <v>284.2082805868591</v>
       </c>
       <c r="N34" t="n">
-        <v>737.3967183525755</v>
+        <v>510.5308993146815</v>
       </c>
       <c r="O34" t="n">
-        <v>793.2219173585423</v>
+        <v>566.3560983206484</v>
       </c>
       <c r="P34" t="n">
-        <v>817.4693369804063</v>
+        <v>739.1471376181798</v>
       </c>
       <c r="Q34" t="n">
-        <v>817.4693369804063</v>
+        <v>821.0433336359706</v>
       </c>
       <c r="R34" t="n">
-        <v>800.1641651232</v>
+        <v>803.7381617787643</v>
       </c>
       <c r="S34" t="n">
-        <v>729.4053275882953</v>
+        <v>732.9793242438597</v>
       </c>
       <c r="T34" t="n">
-        <v>651.6880263870762</v>
+        <v>655.2620230426405</v>
       </c>
       <c r="U34" t="n">
-        <v>514.0489396453729</v>
+        <v>517.6229363009372</v>
       </c>
       <c r="V34" t="n">
-        <v>410.9241082864073</v>
+        <v>414.4981049419715</v>
       </c>
       <c r="W34" t="n">
-        <v>273.066595096368</v>
+        <v>276.6405917519321</v>
       </c>
       <c r="X34" t="n">
-        <v>196.6367010452718</v>
+        <v>200.210697700836</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.403778748663</v>
+        <v>130.9777754042271</v>
       </c>
     </row>
     <row r="35">
@@ -6935,16 +6935,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020939</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241021</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6965,7 +6965,7 @@
         <v>1521.695353696699</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U35" t="n">
         <v>1507.62865247297</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>454.0975367901693</v>
+        <v>683.6308609779433</v>
       </c>
       <c r="C36" t="n">
-        <v>279.6445075090423</v>
+        <v>509.1778316968163</v>
       </c>
       <c r="D36" t="n">
-        <v>279.6445075090423</v>
+        <v>360.243422035565</v>
       </c>
       <c r="E36" t="n">
-        <v>279.6445075090423</v>
+        <v>201.0059670301095</v>
       </c>
       <c r="F36" t="n">
-        <v>279.6445075090423</v>
+        <v>54.47140905699447</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1847825900245</v>
+        <v>54.47140905699447</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>54.47140905699447</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
@@ -7017,16 +7017,16 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K36" t="n">
-        <v>54.79813383722129</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>119.7913802412348</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M36" t="n">
-        <v>496.410980281168</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211011</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
         <v>1185.002115453613</v>
@@ -7035,31 +7035,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1320.601484309847</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U36" t="n">
-        <v>1092.395701605339</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V36" t="n">
-        <v>1084.310529303393</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="W36" t="n">
-        <v>830.0731725751912</v>
+        <v>1267.457996968498</v>
       </c>
       <c r="X36" t="n">
-        <v>830.0731725751912</v>
+        <v>1059.606496762965</v>
       </c>
       <c r="Y36" t="n">
-        <v>622.3128738102373</v>
+        <v>851.8461979980113</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
         <v>30.43390707393399</v>
@@ -7096,7 +7096,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
         <v>94.69987566531978</v>
@@ -7126,19 +7126,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U37" t="n">
-        <v>242.8941352100474</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V37" t="n">
-        <v>227.9869088487241</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810893</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852419</v>
+        <v>743.2932336852411</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230551</v>
+        <v>624.8047969230543</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693744</v>
+        <v>478.7938061693737</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243296</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H38" t="n">
         <v>30.43390707393399</v>
@@ -7175,13 +7175,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L38" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7211,10 +7211,10 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
         <v>1019.301067000648</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>343.3466612740789</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C39" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D39" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E39" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F39" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G39" t="n">
         <v>30.43390707393399</v>
@@ -7251,52 +7251,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K39" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>510.7163377867616</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M39" t="n">
-        <v>510.7163377867616</v>
+        <v>862.9717110634075</v>
       </c>
       <c r="N39" t="n">
-        <v>887.3359378266948</v>
+        <v>976.342225401374</v>
       </c>
       <c r="O39" t="n">
-        <v>1199.307472959206</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1152.219712613948</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U39" t="n">
-        <v>969.0257016150604</v>
+        <v>839.676412106527</v>
       </c>
       <c r="V39" t="n">
-        <v>733.8735933833177</v>
+        <v>604.5243038747842</v>
       </c>
       <c r="W39" t="n">
-        <v>719.4134984996797</v>
+        <v>350.2869471465826</v>
       </c>
       <c r="X39" t="n">
-        <v>511.5619982941469</v>
+        <v>142.4354469410497</v>
       </c>
       <c r="Y39" t="n">
-        <v>511.5619982941469</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="40">
@@ -7357,19 +7357,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
         <v>30.43390707393399</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829038</v>
+        <v>976.430644582906</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416672</v>
+        <v>830.5994560416689</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340917</v>
+        <v>695.465085834093</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350225</v>
+        <v>532.8081616350233</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445901</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121436</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="J41" t="n">
-        <v>95.95679010944298</v>
+        <v>64.82915620969254</v>
       </c>
       <c r="K41" t="n">
-        <v>262.141457361889</v>
+        <v>231.0138234621386</v>
       </c>
       <c r="L41" t="n">
-        <v>689.2084271291729</v>
+        <v>489.4572257845113</v>
       </c>
       <c r="M41" t="n">
-        <v>993.3830543982469</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1287.847547595504</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.714380661074</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.786452210411</v>
+        <v>1482.035250865749</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.52311017085</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.52311017085</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501731</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.878916557335</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686395</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.90715982449</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247853</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.1296390433835</v>
+        <v>819.3931718239191</v>
       </c>
       <c r="C42" t="n">
-        <v>627.6766097622565</v>
+        <v>819.3931718239191</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7422001010053</v>
+        <v>670.4587621626679</v>
       </c>
       <c r="E42" t="n">
-        <v>319.5047450955498</v>
+        <v>511.2213071572124</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9701871224348</v>
+        <v>364.6867491840974</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>226.2270242650795</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341689</v>
+        <v>115.476148748989</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670428</v>
       </c>
       <c r="K42" t="n">
-        <v>227.137876296915</v>
+        <v>227.1378762969151</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162446</v>
+        <v>514.7928929162447</v>
       </c>
       <c r="M42" t="n">
-        <v>902.4519511407073</v>
+        <v>663.2320834276585</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.0782045083</v>
+        <v>1076.858336795251</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927762</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090577</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1683.332732171948</v>
       </c>
       <c r="S42" t="n">
-        <v>1705.538927901046</v>
+        <v>1514.950960476049</v>
       </c>
       <c r="T42" t="n">
-        <v>1504.445058514193</v>
+        <v>1313.857091089197</v>
       </c>
       <c r="U42" t="n">
-        <v>1276.239275809686</v>
+        <v>1085.651308384689</v>
       </c>
       <c r="V42" t="n">
-        <v>1041.087167577943</v>
+        <v>850.4992001529462</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.981139248916</v>
+        <v>819.3931718239191</v>
       </c>
       <c r="X42" t="n">
-        <v>802.1296390433835</v>
+        <v>819.3931718239191</v>
       </c>
       <c r="Y42" t="n">
-        <v>802.1296390433835</v>
+        <v>819.3931718239191</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896017</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480268</v>
+        <v>98.77643079480276</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975945</v>
+        <v>209.4207309851736</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486292</v>
+        <v>203.2751013362079</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591798</v>
+        <v>137.207686146758</v>
       </c>
       <c r="V43" t="n">
-        <v>226.968312652468</v>
+        <v>105.6545263400457</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146824</v>
+        <v>39.3686847022597</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158402</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158402</v>
+        <v>34.51046220341699</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829028</v>
+        <v>976.4306445829046</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416661</v>
+        <v>830.5994560416677</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340908</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350217</v>
+        <v>532.8081616350227</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445892</v>
+        <v>344.9535852445897</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121436</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341687</v>
+        <v>63.97560257890002</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969243</v>
+        <v>264.5803575543595</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621385</v>
+        <v>430.7650248068055</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845111</v>
+        <v>689.2084271291782</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535851</v>
+        <v>993.3830543982522</v>
       </c>
       <c r="N44" t="n">
-        <v>1220.698822820869</v>
+        <v>1287.847547595509</v>
       </c>
       <c r="O44" t="n">
-        <v>1453.565655886439</v>
+        <v>1520.714380661079</v>
       </c>
       <c r="P44" t="n">
-        <v>1614.637727435776</v>
+        <v>1681.786452210416</v>
       </c>
       <c r="Q44" t="n">
-        <v>1658.374385396209</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501725</v>
+        <v>1694.81047550173</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557334</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686394</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824486</v>
+        <v>1306.907159824489</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247852</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>802.1296390433835</v>
+        <v>854.9923536799708</v>
       </c>
       <c r="C45" t="n">
-        <v>627.6766097622565</v>
+        <v>680.5393243988439</v>
       </c>
       <c r="D45" t="n">
-        <v>478.7422001010053</v>
+        <v>531.6049147375926</v>
       </c>
       <c r="E45" t="n">
-        <v>319.5047450955498</v>
+        <v>372.3674597321371</v>
       </c>
       <c r="F45" t="n">
-        <v>172.9701871224347</v>
+        <v>225.8329017590221</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341687</v>
+        <v>225.8329017590221</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341687</v>
+        <v>115.476148748989</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="K45" t="n">
-        <v>202.7736495336277</v>
+        <v>202.7736495336278</v>
       </c>
       <c r="L45" t="n">
-        <v>275.5730252031902</v>
+        <v>490.4286661529574</v>
       </c>
       <c r="M45" t="n">
-        <v>663.2320834276528</v>
+        <v>878.08772437742</v>
       </c>
       <c r="N45" t="n">
-        <v>1076.858336795245</v>
+        <v>1180.169981875524</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.829871927757</v>
+        <v>1492.141517008035</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090571</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="S45" t="n">
-        <v>1690.167898266825</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="T45" t="n">
-        <v>1489.074028879972</v>
+        <v>1725.523110170849</v>
       </c>
       <c r="U45" t="n">
-        <v>1483.999574574639</v>
+        <v>1720.448655865516</v>
       </c>
       <c r="V45" t="n">
-        <v>1471.978794742072</v>
+        <v>1485.296547633773</v>
       </c>
       <c r="W45" t="n">
-        <v>1217.74143801387</v>
+        <v>1231.059190905572</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.889937808337</v>
+        <v>1023.207690700039</v>
       </c>
       <c r="Y45" t="n">
-        <v>802.1296390433835</v>
+        <v>1023.207690700039</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896005</v>
+        <v>38.34417004896017</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480265</v>
+        <v>98.77643079480276</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176087</v>
+        <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486289</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591798</v>
+        <v>258.521472459179</v>
       </c>
       <c r="V46" t="n">
-        <v>226.968312652468</v>
+        <v>226.9683126524668</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146824</v>
+        <v>160.6824710146807</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158402</v>
+        <v>155.824248515838</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341699</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>145.9294662980895</v>
       </c>
       <c r="M12" t="n">
-        <v>164.0355984471881</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
         <v>441.9619164368268</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7624954338817</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565155</v>
+        <v>170.539796362016</v>
       </c>
       <c r="M15" t="n">
         <v>454.5540958868387</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>209.6857225656697</v>
       </c>
       <c r="L18" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>374.8513543081418</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368268</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>374.8031641565202</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368268</v>
+        <v>217.0510374314572</v>
       </c>
       <c r="O21" t="n">
-        <v>78.73955651661686</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>188.6459285111147</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368268</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>339.0828048298203</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q24" t="n">
         <v>105.7220906850686</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>145.9294662980895</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868387</v>
+        <v>440.1042398205827</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368268</v>
+        <v>61.53807801265201</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>74.13025746266391</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>176.053749061103</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>304.012912573681</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>224.0688337368193</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>256.5812863143242</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>153.8144453541996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>366.67167144508</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.5685736495644</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
         <v>233.5562907382949</v>
@@ -23264,7 +23264,7 @@
         <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>32.14197993282749</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.138405670248</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>214.0607531464311</v>
       </c>
       <c r="D14" t="n">
         <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.8728397687461</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188893</v>
+        <v>307228.6270188894</v>
       </c>
       <c r="C2" t="n">
         <v>307228.6270188894</v>
       </c>
       <c r="D2" t="n">
-        <v>307228.6270188893</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="E2" t="n">
-        <v>263640.0816868805</v>
+        <v>263640.0816868803</v>
       </c>
       <c r="F2" t="n">
-        <v>263640.0816868803</v>
+        <v>263640.0816868806</v>
       </c>
       <c r="G2" t="n">
         <v>307890.6636991064</v>
@@ -26332,28 +26332,28 @@
         <v>307890.6636991063</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
         <v>307890.6636991058</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.663699106</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612105</v>
+        <v>116916.0581612106</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239521</v>
+        <v>87131.0989423952</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510451</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>310803.6100166999</v>
       </c>
       <c r="G4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="H4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
         <v>377919.8023185458</v>
@@ -26442,22 +26442,22 @@
         <v>376828.4269773418</v>
       </c>
       <c r="K4" t="n">
-        <v>376828.4269773418</v>
+        <v>376828.4269773417</v>
       </c>
       <c r="L4" t="n">
         <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="N4" t="n">
         <v>377919.8023185457</v>
       </c>
       <c r="O4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831305</v>
       </c>
       <c r="P4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831305</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="L5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368939</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368934</v>
+        <v>47518.94570368939</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162672.8527003589</v>
+        <v>-162677.2662782269</v>
       </c>
       <c r="C6" t="n">
-        <v>-162672.8527003588</v>
+        <v>-162677.2662782269</v>
       </c>
       <c r="D6" t="n">
-        <v>-162672.8527003589</v>
+        <v>-162677.2662782268</v>
       </c>
       <c r="E6" t="n">
-        <v>-403292.8766155927</v>
+        <v>-403587.8804956744</v>
       </c>
       <c r="F6" t="n">
-        <v>-84086.73169660268</v>
+        <v>-84381.73557668396</v>
       </c>
       <c r="G6" t="n">
-        <v>-200365.6258884782</v>
+        <v>-200365.625888478</v>
       </c>
       <c r="H6" t="n">
-        <v>-115835.315333754</v>
+        <v>-115835.3153337539</v>
       </c>
       <c r="I6" t="n">
-        <v>-115835.315333754</v>
+        <v>-115835.3153337539</v>
       </c>
       <c r="J6" t="n">
-        <v>-243235.8530550578</v>
+        <v>-243235.853055058</v>
       </c>
       <c r="K6" t="n">
-        <v>-126319.7948938473</v>
+        <v>-126319.7948938471</v>
       </c>
       <c r="L6" t="n">
-        <v>-210850.1054485715</v>
+        <v>-210850.1054485712</v>
       </c>
       <c r="M6" t="n">
-        <v>-202966.414276149</v>
+        <v>-202966.4142761492</v>
       </c>
       <c r="N6" t="n">
-        <v>-115835.315333754</v>
+        <v>-115835.3153337539</v>
       </c>
       <c r="O6" t="n">
-        <v>-151201.7601228183</v>
+        <v>-151201.7601228181</v>
       </c>
       <c r="P6" t="n">
         <v>-116617.5633877137</v>
@@ -26695,16 +26695,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26716,16 +26716,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
     </row>
     <row r="3">
@@ -26802,7 +26802,7 @@
         <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="H4" t="n">
         <v>380.4238384241748</v>
@@ -26811,25 +26811,25 @@
         <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427123</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427109</v>
+        <v>431.3807775427123</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>87.33542894766595</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.9016979741117</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006022</v>
+        <v>69.27158386006016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.95693911853743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
-        <v>95.92301985653816</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327126</v>
+        <v>25.6273271769264</v>
       </c>
       <c r="T12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>131.7166010327126</v>
@@ -28284,13 +28284,13 @@
         <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>116.6552291119085</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119079</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327126</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.7005614487098</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>25.62732717692597</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>116.6552291119074</v>
       </c>
       <c r="M16" t="n">
-        <v>116.6552291119085</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="18">
@@ -28643,22 +28643,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>154.0001527619095</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>126.0906080843038</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
         <v>80.15602968011626</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28728,13 +28728,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>133.7670488611307</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7659706229939</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>160.2266402957612</v>
@@ -28776,13 +28776,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V19" t="n">
-        <v>56.94660481768537</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="21">
@@ -28883,16 +28883,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>39.64076822180633</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>151.9196377542932</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28977,7 +28977,7 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I22" t="n">
-        <v>148.6838485916426</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>77.45106251930778</v>
@@ -29007,19 +29007,19 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
-        <v>220.0953094380075</v>
+        <v>188.3462736212177</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W22" t="n">
-        <v>56.9466048176854</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>65.69790792152591</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,22 +29165,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>180.6524737613084</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29250,19 +29250,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>56.9466048176854</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366238</v>
       </c>
     </row>
     <row r="26">
@@ -29311,7 +29311,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784524</v>
       </c>
       <c r="P26" t="n">
         <v>150.044060278452</v>
@@ -29320,7 +29320,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
         <v>150.044060278452</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>58.04450608798356</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.81785191944738</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29436,10 +29436,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
         <v>150.044060278452</v>
@@ -29457,13 +29457,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>12.84777398903459</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.044060278452</v>
+        <v>7.80908909691189</v>
       </c>
       <c r="Q28" t="n">
         <v>150.044060278452</v>
@@ -29588,64 +29588,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C30" t="n">
-        <v>98.76210202409068</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>26.27507671194178</v>
+      </c>
+      <c r="T30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>80.15602968011626</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>150.044060278452</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>150.044060278452</v>
@@ -29694,16 +29694,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>7.809089096912061</v>
+        <v>9.237676357152097</v>
       </c>
       <c r="N31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>12.66896468539304</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>79.64470283808839</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29925,19 +29925,19 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
         <v>77.45106251930778</v>
       </c>
       <c r="K34" t="n">
-        <v>19.1330564143654</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>150.044060278452</v>
+        <v>91.4239956905092</v>
       </c>
       <c r="N34" t="n">
         <v>150.044060278452</v>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745123</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="36">
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>56.35890271688639</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,19 +30116,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>224.7962665704986</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30198,13 +30198,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>203.3805674642547</v>
+        <v>56.94660481768554</v>
       </c>
       <c r="V37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30314,7 +30314,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,19 +30356,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>44.56165398856371</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>94.80117130885978</v>
       </c>
     </row>
     <row r="40">
@@ -30429,7 +30429,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957522</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
@@ -30444,7 +30444,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
-        <v>45.27677098060474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,37 +30457,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="I41" t="n">
         <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>31.44205444419246</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.3268358029406</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>201.7688902471384</v>
       </c>
       <c r="R41" t="n">
         <v>118.359332514826</v>
@@ -30511,22 +30511,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30554,10 +30554,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>41.72566840597208</v>
       </c>
       <c r="S42" t="n">
-        <v>146.9136135318395</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30599,10 +30599,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.73133173263824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30666,22 +30666,22 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098871071</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>172.0061221910948</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>133.9418955252799</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>186.1863272366788</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
         <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0.3901812809968277</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,16 +30824,16 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>131.6962941939612</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="V45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30906,22 +30906,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151829</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.4840049027957</v>
+        <v>98.48400490279795</v>
       </c>
     </row>
   </sheetData>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35489,13 +35489,13 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478076</v>
+        <v>65.64974384243793</v>
       </c>
       <c r="M12" t="n">
-        <v>89.90534098452417</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
         <v>380.4238384241748</v>
@@ -35507,7 +35507,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340486</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>173.0443190169256</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
         <v>24.49234305238787</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526139</v>
+        <v>49.33459915445672</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>90.26007390636448</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>380.4238384241748</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340489</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>61.04268762206324</v>
+        <v>177.6979167339706</v>
       </c>
       <c r="M16" t="n">
-        <v>191.510248124844</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O16" t="n">
         <v>188.1056909377297</v>
@@ -35823,7 +35823,7 @@
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526139</v>
+        <v>64.39597107526144</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9628154850614</v>
+        <v>115.1833010381525</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>300.7210968454779</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>300.6729066938563</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241748</v>
+        <v>155.5129594188053</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427591</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,16 +36443,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>114.5156710484508</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>260.3432483132034</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770081</v>
       </c>
       <c r="P26" t="n">
         <v>312.7431224494998</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.6847277636259</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,10 +36732,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
         <v>4.623012255520763</v>
@@ -36753,13 +36753,13 @@
         <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>16.72020615624992</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206324</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
         <v>78.5646455072272</v>
@@ -36768,7 +36768,7 @@
         <v>56.38908990501705</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>32.30143214929976</v>
       </c>
       <c r="Q28" t="n">
         <v>82.72343032100078</v>
@@ -36844,7 +36844,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.428587260239652</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882837</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520763</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,22 +36984,22 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.36021168680944</v>
+        <v>1.360211686809412</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914423</v>
+        <v>72.5929977591442</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215337</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005153</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M31" t="n">
-        <v>82.66410810984749</v>
+        <v>84.09269537008753</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
         <v>56.38908990501705</v>
@@ -37008,7 +37008,7 @@
         <v>24.49234305238787</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100078</v>
+        <v>82.72343032100075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882837</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.36021168680944</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>23.00548858158073</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005153</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913874</v>
+        <v>166.2790147034446</v>
       </c>
       <c r="N34" t="n">
         <v>228.6087057856792</v>
@@ -37242,10 +37242,10 @@
         <v>56.38908990501705</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238787</v>
+        <v>174.5364033308398</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.72343032100075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>65.64974384243793</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241748</v>
+        <v>365.9739823579188</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241748</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>169.9628154850614</v>
@@ -37628,19 +37628,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>114.515671048451</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>221.2891269264855</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>62.06699788487484</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>431.380777542711</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
         <v>307.2470982515899</v>
@@ -37798,7 +37798,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.1784423842758</v>
+        <v>245.9473326314142</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>391.574806287336</v>
+        <v>149.9385762741554</v>
       </c>
       <c r="N42" t="n">
         <v>417.8042963309015</v>
       </c>
       <c r="O42" t="n">
-        <v>177.8417297977074</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.76276805604347</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068237</v>
+        <v>202.6310656317772</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38026,7 +38026,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N44" t="n">
-        <v>431.3807775427109</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
@@ -38038,7 +38038,7 @@
         <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>67.8269947218528</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>73.534722898548</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
         <v>391.574806287336</v>
       </c>
       <c r="N45" t="n">
-        <v>417.8042963309015</v>
+        <v>305.133593432428</v>
       </c>
       <c r="O45" t="n">
         <v>315.1227627601127</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
